--- a/cloud_intervals_112024_A.xlsx
+++ b/cloud_intervals_112024_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anh\Documents\GitHub\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709CACC-AEC8-4F0A-A305-605188814B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB8095-78D2-4D23-8155-3A2D2E617762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="170" windowWidth="37990" windowHeight="20810" xr2:uid="{3AE738C0-3A1C-4DFE-88D2-21A5DEED96E6}"/>
+    <workbookView xWindow="6950" yWindow="250" windowWidth="12250" windowHeight="11030" xr2:uid="{3AE738C0-3A1C-4DFE-88D2-21A5DEED96E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Dallin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Oribt #</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Ambigous: A</t>
+  </si>
+  <si>
+    <t>a3</t>
   </si>
 </sst>
 </file>
@@ -139,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +441,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,6 +471,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>

--- a/cloud_intervals_112024_A.xlsx
+++ b/cloud_intervals_112024_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anh\Documents\GitHub\cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\OneDrive\Documents\GitHub\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB8095-78D2-4D23-8155-3A2D2E617762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329C8267-91A1-4CC0-BC6A-F1C49212B262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6950" yWindow="250" windowWidth="12250" windowHeight="11030" xr2:uid="{3AE738C0-3A1C-4DFE-88D2-21A5DEED96E6}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="23726" windowHeight="15540" xr2:uid="{3AE738C0-3A1C-4DFE-88D2-21A5DEED96E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Dallin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Oribt #</t>
   </si>
@@ -86,7 +86,21 @@
     <t>Ambigous: A</t>
   </si>
   <si>
-    <t>a3</t>
+    <t>Start 
+(Center Column)</t>
+  </si>
+  <si>
+    <t>End 
+(Center Column)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe clouds at the beginning. I saw layers. </t>
+  </si>
+  <si>
+    <t>looks like clouds at the beginning and at 530</t>
+  </si>
+  <si>
+    <t>ambigous after</t>
   </si>
 </sst>
 </file>
@@ -122,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,9 +159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,19 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DEE03D-CE62-481C-AFCA-31D028C195CF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.53515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.61328125" customWidth="1"/>
+    <col min="6" max="6" width="15.07421875" customWidth="1"/>
+    <col min="7" max="7" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,16 +485,470 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1395</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>86</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>446</v>
+      </c>
+      <c r="F4">
+        <v>269</v>
+      </c>
+      <c r="G4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>469</v>
+      </c>
+      <c r="E5">
+        <v>793</v>
+      </c>
+      <c r="F5">
+        <v>498</v>
+      </c>
+      <c r="G5">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <v>711</v>
+      </c>
+      <c r="G6">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>1071</v>
+      </c>
+      <c r="E7">
+        <v>1395</v>
+      </c>
+      <c r="F7">
+        <v>1084</v>
+      </c>
+      <c r="G7">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <v>1134</v>
+      </c>
+      <c r="G8">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>1180</v>
+      </c>
+      <c r="G9">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <v>1353</v>
+      </c>
+      <c r="G10">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>130</v>
+      </c>
+      <c r="E12">
+        <v>231</v>
+      </c>
+      <c r="F12">
+        <v>167</v>
+      </c>
+      <c r="G12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>925</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>950</v>
+      </c>
+      <c r="G13">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>1019</v>
+      </c>
+      <c r="E14">
+        <v>1139</v>
+      </c>
+      <c r="F14">
+        <v>1049</v>
+      </c>
+      <c r="G14">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>1200</v>
+      </c>
+      <c r="E15">
+        <v>1371</v>
+      </c>
+      <c r="F15">
+        <v>1234</v>
+      </c>
+      <c r="G15">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <v>1319</v>
+      </c>
+      <c r="G16">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>181</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <v>493</v>
+      </c>
+      <c r="E19">
+        <v>648</v>
+      </c>
+      <c r="F19">
+        <v>530</v>
+      </c>
+      <c r="G19">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <v>790</v>
+      </c>
+      <c r="E20">
+        <v>891</v>
+      </c>
+      <c r="F20">
+        <v>828</v>
+      </c>
+      <c r="G20">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21">
+        <v>916</v>
+      </c>
+      <c r="E21">
+        <v>1043</v>
+      </c>
+      <c r="F21">
+        <v>945</v>
+      </c>
+      <c r="G21">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>537</v>
+      </c>
+      <c r="E23">
+        <v>855</v>
+      </c>
+      <c r="F23">
+        <v>573</v>
+      </c>
+      <c r="G23">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1087</v>
+      </c>
+      <c r="E25">
+        <v>1413</v>
+      </c>
+      <c r="F25">
+        <v>1100</v>
+      </c>
+      <c r="G25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F26">
+        <v>1113</v>
+      </c>
+      <c r="G26">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <v>1300</v>
+      </c>
+      <c r="G27">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <v>1400</v>
+      </c>
+      <c r="G28">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>907</v>
+      </c>
+      <c r="E30">
+        <v>1344</v>
+      </c>
+      <c r="F30">
+        <v>936</v>
+      </c>
+      <c r="G30">
+        <v>1246</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F31">
+        <v>1270</v>
+      </c>
+      <c r="G31">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <v>1299</v>
+      </c>
+      <c r="G32">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D33">
+        <v>1385</v>
+      </c>
+      <c r="E33">
+        <v>1407</v>
+      </c>
+      <c r="F33">
+        <v>1400</v>
+      </c>
+      <c r="G33">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>405</v>
+      </c>
+      <c r="E35">
+        <v>608</v>
+      </c>
+      <c r="F35">
+        <v>434</v>
+      </c>
+      <c r="G35">
+        <v>484</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F36">
+        <v>513</v>
+      </c>
+      <c r="G36">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <v>564</v>
+      </c>
+      <c r="G37">
+        <v>581</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D38">
+        <v>907</v>
+      </c>
+      <c r="E38">
+        <v>1249</v>
+      </c>
+      <c r="F38">
+        <v>942</v>
+      </c>
+      <c r="G38">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>458</v>
+      </c>
+      <c r="E40">
+        <v>585</v>
+      </c>
+      <c r="F40">
+        <v>490</v>
+      </c>
+      <c r="G40">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D41">
+        <v>1066</v>
+      </c>
+      <c r="E41">
+        <v>1278</v>
+      </c>
+      <c r="F41">
+        <v>1061</v>
+      </c>
+      <c r="G41">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <v>1154</v>
+      </c>
+      <c r="G42">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>488</v>
+      </c>
+      <c r="E44">
+        <v>685</v>
+      </c>
+      <c r="F44">
+        <v>491</v>
+      </c>
+      <c r="G44">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -488,16 +961,16 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A1:K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.53515625" customWidth="1"/>
+    <col min="3" max="3" width="11.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,15 +997,15 @@
   <dimension ref="A4:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -543,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -554,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
